--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Charente/Liste_des_villes_et_villages_fleuris_de_la_Charente.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Charente/Liste_des_villes_et_villages_fleuris_de_la_Charente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Charente dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Charente, en Nouvelle-Aquitaine.
-En 2023, 51 communes du département figurent au palmarès du concours[1], soit quatre communes de plus par rapport au palmarès de 2022.
+En 2023, 51 communes du département figurent au palmarès du concours, soit quatre communes de plus par rapport au palmarès de 2022.
 </t>
         </is>
       </c>
@@ -512,26 +524,217 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2023 par rapport à 2022). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indication car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 51 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 51 communes sont réparties comme suit :
 4 fleurs : 1 commune. 
 3 fleurs : 5 communes.
 2 fleurs : 20 communes.
-1 fleur : 25 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Charente labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 25 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Charente labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Angoulême
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Barbezieux-Saint-Hilaire
 Cognac
 Confolens
 Saint-Fraigne
 Soyaux
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aigre
 Champniers
 Châteaubernard
@@ -552,7 +755,47 @@
 Segonzac
 Terres-de-Haute-Charente
 Xambes
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Charente</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aubeterre-sur-Dronne
 Barro
 Bioussac
